--- a/data/fitbit_data.xlsx
+++ b/data/fitbit_data.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,6 +1545,844 @@
         <v>99.8</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.06599998474121</v>
+      </c>
+      <c r="D30" t="n">
+        <v>330</v>
+      </c>
+      <c r="E30" t="n">
+        <v>59</v>
+      </c>
+      <c r="F30" t="n">
+        <v>59</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2021-07-18T23:29:30.000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>06:23:02</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>389</v>
+      </c>
+      <c r="J30" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26.63299942016602</v>
+      </c>
+      <c r="D31" t="n">
+        <v>271</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>59</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2021-07-20T00:29:00.000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>07:31:03</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>314</v>
+      </c>
+      <c r="J31" t="n">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-21</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26.83200073242188</v>
+      </c>
+      <c r="D32" t="n">
+        <v>477</v>
+      </c>
+      <c r="E32" t="n">
+        <v>32</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2021-07-20T21:18:00.000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>05:51:23</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>509</v>
+      </c>
+      <c r="J32" t="n">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.73699951171875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>395</v>
+      </c>
+      <c r="E33" t="n">
+        <v>52</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2021-07-21T22:41:30.000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>06:11:57</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>447</v>
+      </c>
+      <c r="J33" t="n">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.46100044250488</v>
+      </c>
+      <c r="D34" t="n">
+        <v>378</v>
+      </c>
+      <c r="E34" t="n">
+        <v>57</v>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021-07-22T22:55:00.000</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>06:14:08</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>435</v>
+      </c>
+      <c r="J34" t="n">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-24</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26.19599914550781</v>
+      </c>
+      <c r="D35" t="n">
+        <v>395</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>59</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021-07-23T22:45:00.000</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10:31:57</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>420</v>
+      </c>
+      <c r="J35" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-25</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26.11899948120117</v>
+      </c>
+      <c r="D36" t="n">
+        <v>306</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26</v>
+      </c>
+      <c r="F36" t="n">
+        <v>59</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021-07-24T23:48:30.000</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>05:21:54</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>332</v>
+      </c>
+      <c r="J36" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-26</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="C37" t="n">
+        <v>26.14900016784668</v>
+      </c>
+      <c r="D37" t="n">
+        <v>413</v>
+      </c>
+      <c r="E37" t="n">
+        <v>43</v>
+      </c>
+      <c r="F37" t="n">
+        <v>59</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021-07-25T22:01:30.000</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>05:47:21</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>456</v>
+      </c>
+      <c r="J37" t="n">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-27</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26.20899963378906</v>
+      </c>
+      <c r="D38" t="n">
+        <v>491</v>
+      </c>
+      <c r="E38" t="n">
+        <v>43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>59</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-07-26T21:55:00.000</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>06:54:12</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>534</v>
+      </c>
+      <c r="J38" t="n">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-28</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.23600006103516</v>
+      </c>
+      <c r="D39" t="n">
+        <v>337</v>
+      </c>
+      <c r="E39" t="n">
+        <v>43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>60</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021-07-27T23:41:30.000</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>06:04:36</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>380</v>
+      </c>
+      <c r="J39" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-29</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26.20800018310547</v>
+      </c>
+      <c r="D40" t="n">
+        <v>458</v>
+      </c>
+      <c r="E40" t="n">
+        <v>43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>58</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2021-07-28T21:38:30.000</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>05:55:48</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>501</v>
+      </c>
+      <c r="J40" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-30</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.20599937438965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>391</v>
+      </c>
+      <c r="E41" t="n">
+        <v>56</v>
+      </c>
+      <c r="F41" t="n">
+        <v>58</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-07-29T22:30:30.000</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>04:39:28</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>447</v>
+      </c>
+      <c r="J41" t="n">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.17200088500977</v>
+      </c>
+      <c r="D42" t="n">
+        <v>351</v>
+      </c>
+      <c r="E42" t="n">
+        <v>114</v>
+      </c>
+      <c r="F42" t="n">
+        <v>59</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2021-07-30T23:13:00.000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>03:53:56</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>465</v>
+      </c>
+      <c r="J42" t="n">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-01</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.2140007019043</v>
+      </c>
+      <c r="D43" t="n">
+        <v>475</v>
+      </c>
+      <c r="E43" t="n">
+        <v>65</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021-07-31T22:24:30.000</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>07:28:21</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>540</v>
+      </c>
+      <c r="J43" t="n">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-02</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.17399978637695</v>
+      </c>
+      <c r="D44" t="n">
+        <v>352</v>
+      </c>
+      <c r="E44" t="n">
+        <v>46</v>
+      </c>
+      <c r="F44" t="n">
+        <v>60</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2021-08-01T23:20:00.000</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>07:01:48</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>398</v>
+      </c>
+      <c r="J44" t="n">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-03</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.06500053405762</v>
+      </c>
+      <c r="D45" t="n">
+        <v>356</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021-08-02T22:37:00.000</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>05:16:54</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>394</v>
+      </c>
+      <c r="J45" t="n">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-04</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26.14999961853027</v>
+      </c>
+      <c r="D46" t="n">
+        <v>501</v>
+      </c>
+      <c r="E46" t="n">
+        <v>61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>60</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021-08-03T19:40:00.000</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>04:20:26</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>562</v>
+      </c>
+      <c r="J46" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-05</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.06599998474121</v>
+      </c>
+      <c r="D47" t="n">
+        <v>314</v>
+      </c>
+      <c r="E47" t="n">
+        <v>34</v>
+      </c>
+      <c r="F47" t="n">
+        <v>61</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021-08-05T00:16:00.000</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>06:07:45</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>348</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.91699981689453</v>
+      </c>
+      <c r="D48" t="n">
+        <v>388</v>
+      </c>
+      <c r="E48" t="n">
+        <v>53</v>
+      </c>
+      <c r="F48" t="n">
+        <v>61</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021-08-05T22:27:00.000</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>05:52:28</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>441</v>
+      </c>
+      <c r="J48" t="n">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-07</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25.99300003051758</v>
+      </c>
+      <c r="D49" t="n">
+        <v>395</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>59</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021-08-06T22:26:00.000</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>05:19:20</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>408</v>
+      </c>
+      <c r="J49" t="n">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25.70800018310547</v>
+      </c>
+      <c r="D50" t="n">
+        <v>487</v>
+      </c>
+      <c r="E50" t="n">
+        <v>60</v>
+      </c>
+      <c r="F50" t="n">
+        <v>62</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021-08-07T22:57:30.000</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>05:20:14</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>547</v>
+      </c>
+      <c r="J50" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-09</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25.57999992370605</v>
+      </c>
+      <c r="D51" t="n">
+        <v>320</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021-08-08T23:06:30.000</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>05:19:53</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>369</v>
+      </c>
+      <c r="J51" t="n">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/fitbit_data.xlsx
+++ b/data/fitbit_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,11 +2361,7 @@
       <c r="E51" t="n">
         <v>49</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>2021-08-08T23:06:30.000</t>
@@ -2381,6 +2377,82 @@
       </c>
       <c r="J51" t="n">
         <v>97</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-10</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25.52000045776367</v>
+      </c>
+      <c r="D52" t="n">
+        <v>494</v>
+      </c>
+      <c r="E52" t="n">
+        <v>108</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2021-08-09T22:20:00.000</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>08:31:19</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>602</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-11</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="C53" t="n">
+        <v>24.62899971008301</v>
+      </c>
+      <c r="D53" t="n">
+        <v>346</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
+        <v>62</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-08-10T23:22:00.000</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>03:04:45</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>397</v>
+      </c>
+      <c r="J53" t="n">
+        <v>95.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitbit_data.xlsx
+++ b/data/fitbit_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2455,6 +2455,82 @@
         <v>95.09999999999999</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-15</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="C54" t="n">
+        <v>24.07699966430664</v>
+      </c>
+      <c r="D54" t="n">
+        <v>337</v>
+      </c>
+      <c r="E54" t="n">
+        <v>36</v>
+      </c>
+      <c r="F54" t="n">
+        <v>60</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2021-08-14T23:26:30.000</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>05:46:07</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>373</v>
+      </c>
+      <c r="J54" t="n">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24.26199913024902</v>
+      </c>
+      <c r="D55" t="n">
+        <v>375</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30</v>
+      </c>
+      <c r="F55" t="n">
+        <v>61</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2021-08-15T22:21:30.000</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>05:10:02</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>405</v>
+      </c>
+      <c r="J55" t="n">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
